--- a/usenix_17.xlsx
+++ b/usenix_17.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9608" windowHeight="9465" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9608" windowHeight="9465" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="file-created-per-second-sfi" sheetId="5" r:id="rId1"/>
@@ -510,10 +510,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20644,8 +20644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O242"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20673,34 +20673,34 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -20848,46 +20848,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>1.048576</v>
+        <v>5.6955</v>
       </c>
       <c r="C6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>0.16232636877600001</v>
       </c>
       <c r="D6" s="1">
-        <v>1.048576</v>
+        <v>27.4</v>
       </c>
       <c r="E6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>5.4990908339500004</v>
       </c>
       <c r="F6" s="1">
-        <v>1.048576</v>
+        <v>26.6</v>
       </c>
       <c r="G6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>4.8</v>
       </c>
       <c r="H6" s="1">
-        <v>1.048576</v>
+        <v>37.5</v>
       </c>
       <c r="I6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>6.8738635424299996</v>
       </c>
       <c r="J6" s="1">
-        <v>1.048576</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1.048576</v>
+        <v>17.991800000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>4.0164000249000003</v>
       </c>
       <c r="N6" s="1">
-        <v>1.048576</v>
+        <v>30.2</v>
       </c>
       <c r="O6" s="1">
-        <v>2.22044604925E-16</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -21321,50 +21321,50 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>1.048576</v>
+        <v>5.6955</v>
       </c>
       <c r="C19" s="1">
-        <v>2.22044604925E-16</v>
+        <v>0.16232636877600001</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.8108155561408124</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.6703537880783079</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.5841453779299446</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.0382758317970326</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.1589500482837329</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5.3024317443595823</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14046176806250443</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9137915898516367</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.87932578351329971</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.1434816960758494</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -21526,49 +21526,49 @@
       </c>
       <c r="D23" s="2">
         <f>AVERAGE(D17:D22)</f>
-        <v>2.5363918768802605</v>
+        <v>3.1715278029037286</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ref="E23:F24" si="10">AVERAGE(E17:E22)</f>
-        <v>2.3201462090246214</v>
+        <v>2.9318718403710062</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="10"/>
-        <v>3.7503422902651287</v>
+        <v>4.6810331865867862</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ref="G23" si="11">AVERAGE(G17:G22)</f>
-        <v>2.0192483014113098</v>
+        <v>2.5256276067108154</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ref="H23" si="12">AVERAGE(H17:H22)</f>
-        <v>1.7815087289187383</v>
+        <v>2.1413337369660268</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" ref="I23" si="13">AVERAGE(I17:I22)</f>
-        <v>3.1565841052279322</v>
+        <v>3.8736560626211962</v>
       </c>
       <c r="J23" s="2">
         <f>AVERAGE(J17:J22)</f>
-        <v>0.21624566785563834</v>
+        <v>0.23965596253272239</v>
       </c>
       <c r="K23" s="2">
         <f>AVERAGE(K17:K22)</f>
-        <v>1.430196081240507</v>
+        <v>1.7491613462157796</v>
       </c>
       <c r="L23" s="2">
         <f>AVERAGE(L17:L22)</f>
-        <v>0.23773957249257183</v>
+        <v>0.38429386974478846</v>
       </c>
       <c r="M23" s="2">
         <f>AVERAGE(M17:M22)</f>
-        <v>1.3750753763091943</v>
+        <v>1.7323223256551692</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="E24" s="2">
         <f t="shared" si="10"/>
-        <v>2.2643865487440498</v>
+        <v>2.978066451981499</v>
       </c>
       <c r="H24" s="2">
         <f>AVERAGE(H20:H22)</f>
@@ -21670,11 +21670,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.8108155561408124</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>5.3024317443595823</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -21769,30 +21769,30 @@
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A38" s="3"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21" t="s">
+      <c r="K38" s="20"/>
+      <c r="L38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="21"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
@@ -21872,10 +21872,10 @@
       <c r="M40" s="1">
         <v>362.11274487399999</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O40" s="21"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -22031,30 +22031,30 @@
     </row>
     <row r="45" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A45" s="3"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21" t="s">
+      <c r="G45" s="20"/>
+      <c r="H45" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21" t="s">
+      <c r="I45" s="20"/>
+      <c r="J45" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21" t="s">
+      <c r="K45" s="20"/>
+      <c r="L45" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M45" s="21"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="1">
         <v>84846.3</v>
       </c>
@@ -22140,10 +22140,10 @@
       <c r="M47" s="1">
         <v>419.84093416399998</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O47" s="21"/>
+      <c r="O47" s="20"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
@@ -23256,30 +23256,30 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20" t="s">
+      <c r="E97" s="21"/>
+      <c r="F97" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20" t="s">
+      <c r="G97" s="21"/>
+      <c r="H97" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20" t="s">
+      <c r="I97" s="21"/>
+      <c r="J97" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20" t="s">
+      <c r="K97" s="21"/>
+      <c r="L97" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M97" s="20"/>
+      <c r="M97" s="21"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
@@ -23364,10 +23364,10 @@
       <c r="M99" s="1">
         <v>0.45381604202600001</v>
       </c>
-      <c r="N99" s="20" t="s">
+      <c r="N99" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O99" s="20"/>
+      <c r="O99" s="21"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="14">
@@ -24707,30 +24707,30 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20" t="s">
+      <c r="C157" s="21"/>
+      <c r="D157" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20" t="s">
+      <c r="E157" s="21"/>
+      <c r="F157" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20" t="s">
+      <c r="G157" s="21"/>
+      <c r="H157" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20" t="s">
+      <c r="I157" s="21"/>
+      <c r="J157" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20" t="s">
+      <c r="K157" s="21"/>
+      <c r="L157" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M157" s="20"/>
+      <c r="M157" s="21"/>
       <c r="N157" s="16" t="s">
         <v>43</v>
       </c>
@@ -25301,26 +25301,26 @@
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B171" s="21" t="s">
+      <c r="B171" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="21" t="s">
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="I171" s="21" t="s">
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="I171" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J171" s="21"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="21" t="s">
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="M171" s="21"/>
-      <c r="N171" s="21"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="20"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
@@ -25821,34 +25821,34 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
-      <c r="B187" s="20" t="s">
+      <c r="B187" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20" t="s">
+      <c r="C187" s="21"/>
+      <c r="D187" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20" t="s">
+      <c r="E187" s="21"/>
+      <c r="F187" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20" t="s">
+      <c r="G187" s="21"/>
+      <c r="H187" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20" t="s">
+      <c r="I187" s="21"/>
+      <c r="J187" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20" t="s">
+      <c r="K187" s="21"/>
+      <c r="L187" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M187" s="20"/>
-      <c r="N187" s="20" t="s">
+      <c r="M187" s="21"/>
+      <c r="N187" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O187" s="20"/>
+      <c r="O187" s="21"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
@@ -26980,6 +26980,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="E171:G171"/>
     <mergeCell ref="I171:K171"/>
     <mergeCell ref="L171:N171"/>
@@ -26996,35 +27025,6 @@
     <mergeCell ref="H157:I157"/>
     <mergeCell ref="J157:K157"/>
     <mergeCell ref="N187:O187"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27507,7 +27507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
@@ -27536,34 +27536,34 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -30060,34 +30060,34 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20" t="s">
+      <c r="E88" s="21"/>
+      <c r="F88" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20" t="s">
+      <c r="G88" s="21"/>
+      <c r="H88" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20" t="s">
+      <c r="I88" s="21"/>
+      <c r="J88" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20" t="s">
+      <c r="K88" s="21"/>
+      <c r="L88" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20" t="s">
+      <c r="M88" s="21"/>
+      <c r="N88" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="20"/>
+      <c r="O88" s="21"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
@@ -31715,6 +31715,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
     <mergeCell ref="B88:C88"/>
@@ -31722,13 +31729,6 @@
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="H88:I88"/>
     <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/usenix_17.xlsx
+++ b/usenix_17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9608" windowHeight="9465" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9608" windowHeight="9465" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="file-created-per-second-sfi" sheetId="5" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="fig-ssh-overhead-sfi" sheetId="11" r:id="rId17"/>
     <sheet name="fig-ssh-overhead-pg" sheetId="16" r:id="rId18"/>
     <sheet name="ssh" sheetId="4" r:id="rId19"/>
+    <sheet name="sshd-dmap-fig" sheetId="22" r:id="rId20"/>
+    <sheet name="sshd-dmap" sheetId="21" r:id="rId21"/>
+    <sheet name="perf-analysis" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="137">
   <si>
     <t>null syscall</t>
   </si>
@@ -389,6 +392,66 @@
   <si>
     <t>FILE: SFI-AS/WP</t>
   </si>
+  <si>
+    <t>4KB-DMAP (MB/s)</t>
+  </si>
+  <si>
+    <t>Baseline (MB/s)</t>
+  </si>
+  <si>
+    <t>std dev.</t>
+  </si>
+  <si>
+    <t>File Size (B)</t>
+  </si>
+  <si>
+    <t>First call</t>
+  </si>
+  <si>
+    <t>Following calls</t>
+  </si>
+  <si>
+    <t>DMAP</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>std dev</t>
+  </si>
+  <si>
+    <t>open &amp; close syscall microbenchmark (avg. over 1,000,000 iters)</t>
+  </si>
+  <si>
+    <t>Lmbench File Creation/Deletion VS. postmark</t>
+  </si>
+  <si>
+    <t>postmark</t>
+  </si>
+  <si>
+    <t>file creation/detetion (0K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load </t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>% system</t>
+  </si>
+  <si>
+    <t>Total inst. (user + sys)</t>
+  </si>
+  <si>
+    <t>% of ld and st</t>
+  </si>
+  <si>
+    <t>Baseline(B/s)</t>
+  </si>
+  <si>
+    <t>4KB-DMAP (B/s)</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +548,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -513,9 +576,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5715,6 +5783,682 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sshd-dmap'!$A$24:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sshd-dmap'!$B$24:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5730575799942017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76499462127685547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1618037557601928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9074057865142822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1441766738891603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4261127138137821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7694090461730951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.008493995666505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.029033255577087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.342640786170961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.919477839469913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.689887266159054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.821156835556032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.45485963821411</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.623002314567564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.949752964973449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.180620117187502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.551115584373477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.771963686943053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.751215734481811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5DE-47BF-8FF3-C2A7B84B911C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4KB-DMAP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sshd-dmap'!$A$24:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sshd-dmap'!$C$24:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.55179713249206541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72704007148742678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1374937868118287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8121887254714966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2445851087570192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5685424613952641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8206083726882927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.756904811859131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.94944938659668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.551221904754637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.920701689720154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.141074285507202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.685527539253236</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.380989131927493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.927191915512083</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.02232717990875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.817228202819827</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.658398671150209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.917299451828001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.971249446868896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5DE-47BF-8FF3-C2A7B84B911C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="448571792"/>
+        <c:axId val="448565888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448571792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File Size (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448565888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448565888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (MB/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448571792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -11424,6 +12168,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15280,6 +16064,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -19385,6 +20672,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -19759,6 +21057,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A267CF7-D441-47D4-B80F-2FA78CCEBEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656236" cy="6285453"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4A42B9-606B-4934-A461-805906F62163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20644,8 +21975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20673,34 +22004,34 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -21769,30 +23100,34 @@
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A38" s="3"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20" t="s">
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20" t="s">
+      <c r="K38" s="23"/>
+      <c r="L38" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="20"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
@@ -21831,6 +23166,12 @@
       <c r="M39" t="s">
         <v>57</v>
       </c>
+      <c r="N39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
@@ -21872,10 +23213,12 @@
       <c r="M40" s="1">
         <v>362.11274487399999</v>
       </c>
-      <c r="N40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O40" s="20"/>
+      <c r="N40" s="1">
+        <v>147039.70000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <v>452.97881848899999</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -21917,11 +23260,11 @@
       <c r="M41" s="1">
         <v>345.90686607800001</v>
       </c>
-      <c r="N41" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" t="s">
-        <v>57</v>
+      <c r="N41" s="1">
+        <v>99414.1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>248.36684561300001</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -21965,10 +23308,10 @@
         <v>206.305501623</v>
       </c>
       <c r="N42" s="1">
-        <v>147039.70000000001</v>
+        <v>98973.7</v>
       </c>
       <c r="O42" s="1">
-        <v>452.97881848899999</v>
+        <v>311.86601289700002</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -22012,55 +23355,47 @@
         <v>292.66378320500002</v>
       </c>
       <c r="N43" s="1">
-        <v>99414.1</v>
+        <v>84846.3</v>
       </c>
       <c r="O43" s="1">
-        <v>248.36684561300001</v>
+        <v>323.26182886300001</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="1">
-        <v>98973.7</v>
-      </c>
-      <c r="O44" s="1">
-        <v>311.86601289700002</v>
-      </c>
     </row>
     <row r="45" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A45" s="3"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20" t="s">
+      <c r="G45" s="23"/>
+      <c r="H45" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20" t="s">
+      <c r="I45" s="23"/>
+      <c r="J45" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20" t="s">
+      <c r="K45" s="23"/>
+      <c r="L45" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="1">
-        <v>84846.3</v>
-      </c>
-      <c r="O45" s="1">
-        <v>323.26182886300001</v>
-      </c>
+      <c r="M45" s="23"/>
+      <c r="N45" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
@@ -22099,6 +23434,12 @@
       <c r="M46" t="s">
         <v>57</v>
       </c>
+      <c r="N46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
@@ -22140,10 +23481,12 @@
       <c r="M47" s="1">
         <v>419.84093416399998</v>
       </c>
-      <c r="N47" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" s="20"/>
+      <c r="N47" s="1">
+        <v>162722.6</v>
+      </c>
+      <c r="O47" s="1">
+        <v>431.45294065500002</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
@@ -22185,11 +23528,11 @@
       <c r="M48" s="1">
         <v>346.16159521200001</v>
       </c>
-      <c r="N48" t="s">
-        <v>12</v>
-      </c>
-      <c r="O48" t="s">
-        <v>57</v>
+      <c r="N48" s="1">
+        <v>121287.6</v>
+      </c>
+      <c r="O48" s="1">
+        <v>603.35216913500005</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -22233,10 +23576,10 @@
         <v>240.77585011799999</v>
       </c>
       <c r="N49" s="1">
-        <v>162722.6</v>
+        <v>121232.9</v>
       </c>
       <c r="O49" s="1">
-        <v>431.45294065500002</v>
+        <v>511.64781832800003</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -22280,30 +23623,16 @@
         <v>280.754768437</v>
       </c>
       <c r="N50" s="1">
-        <v>121287.6</v>
+        <v>108416</v>
       </c>
       <c r="O50" s="1">
-        <v>603.35216913500005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N51" s="1">
-        <v>121232.9</v>
-      </c>
-      <c r="O51" s="1">
-        <v>511.64781832800003</v>
+        <v>369.12978747300002</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="1">
-        <v>108416</v>
-      </c>
-      <c r="O52" s="1">
-        <v>369.12978747300002</v>
-      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
@@ -22382,7 +23711,7 @@
         <v>1.7702990894638442</v>
       </c>
       <c r="G55" s="1">
-        <f>B40/N42</f>
+        <f>B40/N40</f>
         <v>1.4282986159520183</v>
       </c>
       <c r="H55" s="2">
@@ -22427,7 +23756,7 @@
         <v>1.761317448179873</v>
       </c>
       <c r="G56" s="1">
-        <f>B41/N43</f>
+        <f>B41/N41</f>
         <v>1.4689465578826342</v>
       </c>
       <c r="H56" s="2">
@@ -22472,7 +23801,7 @@
         <v>1.7545038490082798</v>
       </c>
       <c r="G57" s="1">
-        <f>B42/N44</f>
+        <f>B42/N42</f>
         <v>1.4618156136428162</v>
       </c>
       <c r="H57" s="2">
@@ -22517,7 +23846,7 @@
         <v>1.6162677374872112</v>
       </c>
       <c r="G58" s="1">
-        <f>B43/N45</f>
+        <f>B43/N43</f>
         <v>1.413197746984842</v>
       </c>
       <c r="H58" s="2">
@@ -22797,7 +24126,7 @@
         <v>1.7874301759272466</v>
       </c>
       <c r="G71" s="1">
-        <f>B47/N49</f>
+        <f>B47/N47</f>
         <v>1.3629563441095458</v>
       </c>
       <c r="H71" s="2">
@@ -22842,7 +24171,7 @@
         <v>1.7592260899857974</v>
       </c>
       <c r="G72" s="1">
-        <f>B48/N50</f>
+        <f>B48/N48</f>
         <v>1.3531688317684578</v>
       </c>
       <c r="H72" s="2">
@@ -22887,7 +24216,7 @@
         <v>1.7612536059098811</v>
       </c>
       <c r="G73" s="1">
-        <f>B49/N51</f>
+        <f>B49/N49</f>
         <v>1.3532069265026245</v>
       </c>
       <c r="H73" s="2">
@@ -22932,7 +24261,7 @@
         <v>1.6644317888238735</v>
       </c>
       <c r="G74" s="1">
-        <f>B50/N52</f>
+        <f>B50/N50</f>
         <v>1.3548747417355373</v>
       </c>
       <c r="H74" s="2">
@@ -23256,30 +24585,30 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21" t="s">
+      <c r="C97" s="22"/>
+      <c r="D97" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21" t="s">
+      <c r="E97" s="22"/>
+      <c r="F97" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21" t="s">
+      <c r="G97" s="22"/>
+      <c r="H97" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21" t="s">
+      <c r="I97" s="22"/>
+      <c r="J97" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21" t="s">
+      <c r="K97" s="22"/>
+      <c r="L97" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M97" s="21"/>
+      <c r="M97" s="22"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
@@ -23364,10 +24693,10 @@
       <c r="M99" s="1">
         <v>0.45381604202600001</v>
       </c>
-      <c r="N99" s="21" t="s">
+      <c r="N99" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O99" s="21"/>
+      <c r="O99" s="22"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="14">
@@ -24707,30 +26036,30 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21" t="s">
+      <c r="C157" s="22"/>
+      <c r="D157" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21" t="s">
+      <c r="E157" s="22"/>
+      <c r="F157" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21" t="s">
+      <c r="G157" s="22"/>
+      <c r="H157" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21" t="s">
+      <c r="I157" s="22"/>
+      <c r="J157" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21" t="s">
+      <c r="K157" s="22"/>
+      <c r="L157" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M157" s="21"/>
+      <c r="M157" s="22"/>
       <c r="N157" s="16" t="s">
         <v>43</v>
       </c>
@@ -25301,26 +26630,26 @@
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20" t="s">
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="I171" s="20" t="s">
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="I171" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20" t="s">
+      <c r="J171" s="23"/>
+      <c r="K171" s="23"/>
+      <c r="L171" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M171" s="20"/>
-      <c r="N171" s="20"/>
+      <c r="M171" s="23"/>
+      <c r="N171" s="23"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
@@ -25821,34 +27150,34 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
-      <c r="B187" s="21" t="s">
+      <c r="B187" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21" t="s">
+      <c r="C187" s="22"/>
+      <c r="D187" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21" t="s">
+      <c r="E187" s="22"/>
+      <c r="F187" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21" t="s">
+      <c r="G187" s="22"/>
+      <c r="H187" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I187" s="21"/>
-      <c r="J187" s="21" t="s">
+      <c r="I187" s="22"/>
+      <c r="J187" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K187" s="21"/>
-      <c r="L187" s="21" t="s">
+      <c r="K187" s="22"/>
+      <c r="L187" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M187" s="21"/>
-      <c r="N187" s="21" t="s">
+      <c r="M187" s="22"/>
+      <c r="N187" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O187" s="21"/>
+      <c r="O187" s="22"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
@@ -26979,36 +28308,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
+  <mergeCells count="43">
     <mergeCell ref="E171:G171"/>
     <mergeCell ref="I171:K171"/>
     <mergeCell ref="L171:N171"/>
@@ -27025,6 +28325,33 @@
     <mergeCell ref="H157:I157"/>
     <mergeCell ref="J157:K157"/>
     <mergeCell ref="N187:O187"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27507,8 +28834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27536,34 +28863,34 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -30060,34 +31387,34 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21" t="s">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21" t="s">
+      <c r="E88" s="22"/>
+      <c r="F88" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21" t="s">
+      <c r="G88" s="22"/>
+      <c r="H88" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21" t="s">
+      <c r="I88" s="22"/>
+      <c r="J88" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21" t="s">
+      <c r="K88" s="22"/>
+      <c r="L88" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21" t="s">
+      <c r="M88" s="22"/>
+      <c r="N88" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="21"/>
+      <c r="O88" s="22"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
@@ -31715,6 +33042,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
@@ -31722,14 +33056,842 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="1">
+        <v>600894.42500000005</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23639.8625422</v>
+      </c>
+      <c r="D2" s="1">
+        <v>578601.23</v>
+      </c>
+      <c r="E2" s="1">
+        <v>33869.219096699999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B3" s="1">
+        <v>802155</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13612.3684761</v>
+      </c>
+      <c r="D3" s="1">
+        <v>762356.77</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35237.318132200002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1218239.5349999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9772.42132193</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1192748.6850000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9592.2187114499993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2000059.93</v>
+      </c>
+      <c r="C5" s="1">
+        <v>53207.804109299999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1900217.605</v>
+      </c>
+      <c r="E5" s="1">
+        <v>77269.015029200003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3296908.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62758.522561099999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3402194.0750000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35678.982216800003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>32768</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5689691.5650000004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1241809.0200499999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5839039.9800000004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>269435.73622999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>65536</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10243967.859999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>293476.80970300001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10297654.244999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>334546.227548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>131072</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16786122.600000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>422724.56935499999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16522312.220000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>388696.02729200001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>262144</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25196267.574999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>615750.29974799999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25112817.84</v>
+      </c>
+      <c r="E10" s="1">
+        <v>445643.37442599999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>524288</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32865140.905000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>533751.58141099999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>33083854.059999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>457713.68312399997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40810030.395000003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>388560.43792499998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40811313.695</v>
+      </c>
+      <c r="E12" s="1">
+        <v>337944.32648500003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46860743.229999997</v>
+      </c>
+      <c r="C13" s="1">
+        <v>272460.73491300002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>47333847.109999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>190069.51220999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>4194304</v>
+      </c>
+      <c r="B14" s="1">
+        <v>51192693.350000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>162428.06116300001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50001899.725000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6419516.1256200001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>8388608</v>
+      </c>
+      <c r="B15" s="1">
+        <v>53954330.899999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>322542.27996100002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>53876872.060000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>115717.644651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>16777216</v>
+      </c>
+      <c r="B16" s="1">
+        <v>55179217.274999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>354355.68648099998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55498183.189999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>239547.89370099999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>33554432</v>
+      </c>
+      <c r="B17" s="1">
+        <v>55521840.164999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>112411.276153</v>
+      </c>
+      <c r="D17" s="1">
+        <v>55597939.744999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1809537.5006899999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>67108864</v>
+      </c>
+      <c r="B18" s="1">
+        <v>55763921.920000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1035524.8149</v>
+      </c>
+      <c r="D18" s="1">
+        <v>56431453.880000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>231867.80321499999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>134217728</v>
+      </c>
+      <c r="B19" s="1">
+        <v>56152414.575000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>508294.41268200002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>56264909.045000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>728202.92662000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>268435456</v>
+      </c>
+      <c r="B20" s="1">
+        <v>56383990.594999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>424202.41463399999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>56536386.189999998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>465105.31205900002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>536870912</v>
+      </c>
+      <c r="B21" s="1">
+        <v>56362234.789999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>347873.70243900002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>56592956.859999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>382732.59102400002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="21">
+        <f t="shared" ref="A24:A43" si="0">A2/1024</f>
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ref="B24:B43" si="1">B2/1024/1024</f>
+        <v>0.5730575799942017</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:C43" si="2">D2/1024/1024</f>
+        <v>0.55179713249206541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.76499462127685547</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72704007148742678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1618037557601928</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1374937868118287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9074057865142822</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8121887254714966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1441766738891603</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2445851087570192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4261127138137821</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5685424613952641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="21">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7694090461730951</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8206083726882927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="21">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>16.008493995666505</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>15.756904811859131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="1"/>
+        <v>24.029033255577087</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>23.94944938659668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="1"/>
+        <v>31.342640786170961</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>31.551221904754637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="21">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="1"/>
+        <v>38.919477839469913</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>38.920701689720154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="21">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>44.689887266159054</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>45.141074285507202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="21">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="1"/>
+        <v>48.821156835556032</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>47.685527539253236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="21">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="1"/>
+        <v>51.45485963821411</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>51.380989131927493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="21">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="1"/>
+        <v>52.623002314567564</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>52.927191915512083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="21">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="1"/>
+        <v>52.949752964973449</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>53.02232717990875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="21">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="1"/>
+        <v>53.180620117187502</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>53.817228202819827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="21">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="1"/>
+        <v>53.551115584373477</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>53.658398671150209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="21">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="1"/>
+        <v>53.771963686943053</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>53.917299451828001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="21">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="1"/>
+        <v>53.751215734481811</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>53.971249446868896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26315.777777800002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1678.1403581699999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9344.2222222199998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.0522981920000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="1">
+        <v>29052.888888900001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>301.60328779700001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8736.6666666700003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.0184900284199996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>1609819035</v>
+      </c>
+      <c r="C9">
+        <v>299816353</v>
+      </c>
+      <c r="D9">
+        <v>428070415</v>
+      </c>
+      <c r="E9">
+        <v>89.7</v>
+      </c>
+      <c r="F9" s="5">
+        <f>(C9 + D9)/B9</f>
+        <v>0.45215440504466392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>2735109874</v>
+      </c>
+      <c r="C10" s="24">
+        <v>422303846</v>
+      </c>
+      <c r="D10" s="24">
+        <v>974296811</v>
+      </c>
+      <c r="E10">
+        <v>71.8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>